--- a/biology/Botanique/Eucalyptus_baxteri/Eucalyptus_baxteri.xlsx
+++ b/biology/Botanique/Eucalyptus_baxteri/Eucalyptus_baxteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stringybark brun
 Le stringybark brun (Eucalyptus baxteri) est un stringybark, un eucalyptus de la famille des Myrtaceae originaire du sud-est de l'Australie depuis le sud de la Nouvelle-Galles du Sud en passant par le Victoria jusque dans l'est de l'Australie-Méridionale (péninsule Fleurieu et Kangaroo Island). C'est un arbre de taille moyenne qui peut atteindre 40 m de hauteur. Son écorce rugueuse et filandreuse est de couleur gris-brun. Les premières feuilles mesurent 13 cm sur 8 cm, alors que les feuilles adultes font 13 cm sur 3 cm et sont falciformes ou lancéolées et de couleur verte. La floraison a lieu de décembre à avril et les fleurs blanches font 2 cm de diamètre.
@@ -516,11 +528,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eucalyptus santalifolia var. baxteri Benth., Fl. Austral. 3: 207 (1867).
 Eucalyptus capitellata var. latifolia Benth., Fl. Austral. 3: 206 (1867).
-Eucalyptus baxteri var. pedicellata J.M.Black, Fl. S. Austral. 3: 416 (1926)[1].</t>
+Eucalyptus baxteri var. pedicellata J.M.Black, Fl. S. Austral. 3: 416 (1926).</t>
         </is>
       </c>
     </row>
